--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034067771.1906</v>
+        <v>37050001.05091247</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10153.07236302882</v>
+        <v>757968.0301296201</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20307.29732792804</v>
+        <v>1515936.06025924</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30454.16201494265</v>
+        <v>2273904.09038886</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40814.98414832425</v>
+        <v>3031112.422975627</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51175.80628170585</v>
+        <v>3788320.755562394</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61536.62522874428</v>
+        <v>4545529.088149161</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71897.39007037466</v>
+        <v>5302737.420735925</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82258.20901741313</v>
+        <v>6059945.753322689</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>92619.03115079473</v>
+        <v>6817154.085909451</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>102979.8500978332</v>
+        <v>7574362.418496216</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113340.6722312148</v>
+        <v>8331570.751082978</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123701.4911782533</v>
+        <v>9088779.083669744</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134062.3133116349</v>
+        <v>9845987.416256517</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144423.1354450164</v>
+        <v>10603195.74884329</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154783.9575783982</v>
+        <v>11360404.08143006</v>
       </c>
     </row>
   </sheetData>
